--- a/Input_Data/Median_COREPCE_Level.xlsx
+++ b/Input_Data/Median_COREPCE_Level.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2b09e99cea646701/Bloomberg/Projects/FOMC/FOMC Paper/FOMC_Sentiment_Macro_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2b09e99cea646701/Bloomberg/Projects/FOMC/FOMC Paper/FOMC_Sentiment_Macro_Data/Input_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_80747DD931C1F2264C17EE10F10D81FB337A86E2" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{671E9A6D-00A2-4BFA-B831-F16F71A1BB35}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="11_80747DD931C1F2264C17EE10F10D81FB337A86E2" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5037DA7D-FAED-4AFF-BB88-CC7ADDAE99F3}"/>
   <bookViews>
-    <workbookView xWindow="15120" yWindow="1380" windowWidth="14952" windowHeight="14736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1776" yWindow="2880" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Median_Level" sheetId="1" r:id="rId1"/>
@@ -271,8 +271,8 @@
   <dimension ref="A1:K219"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E210" sqref="D180:E210"/>
+      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E155" sqref="E155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.05" customHeight="1"/>
@@ -7612,7 +7612,7 @@
         <v>1.8</v>
       </c>
       <c r="E210" s="7">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="F210" s="4">
         <v>1.7485999999999999</v>
